--- a/contratos/contratos-6-2014.xlsx
+++ b/contratos/contratos-6-2014.xlsx
@@ -697,7 +697,7 @@
     <t>PEREZ DANIEL RUBEN</t>
   </si>
   <si>
-    <t>RAMIREZ CLAUDIA, RAMIREZ CESAR Y RAMIREZ VERONICA S.H.</t>
+    <t>RAMIREZ CLAUDIA. RAMIREZ CESAR Y RAMIREZ VERONICA SH</t>
   </si>
   <si>
     <t>SERVICER S.A.</t>
@@ -721,7 +721,7 @@
     <t>RADIO MECANO S.A.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CZARLINSKY BERNARDO</t>
@@ -775,19 +775,19 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>URANGA GUILLERMO JESUS</t>
@@ -829,7 +829,7 @@
     <t>GRUPO MARSO S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>VALORI GUILLERMO MIGUEL</t>
@@ -1171,7 +1171,7 @@
     <t>TITO SONIDO</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>EL PINCEL TRAVIESO</t>
@@ -1324,601 +1324,601 @@
     <t>109</t>
   </si>
   <si>
-    <t>144.000,00</t>
-  </si>
-  <si>
-    <t>54.000,00</t>
-  </si>
-  <si>
-    <t>53.000,00</t>
-  </si>
-  <si>
-    <t>350.500,00</t>
-  </si>
-  <si>
-    <t>1.756.000,00</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>193.303,13</t>
-  </si>
-  <si>
-    <t>162.140,00</t>
-  </si>
-  <si>
-    <t>150.000,00</t>
-  </si>
-  <si>
-    <t>32,97</t>
-  </si>
-  <si>
-    <t>2.202,20</t>
-  </si>
-  <si>
-    <t>103.111,75</t>
-  </si>
-  <si>
-    <t>440.354,57</t>
-  </si>
-  <si>
-    <t>12.133,00</t>
-  </si>
-  <si>
-    <t>7.378,00</t>
-  </si>
-  <si>
-    <t>168.425,08</t>
-  </si>
-  <si>
-    <t>17.315,00</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>662,50</t>
-  </si>
-  <si>
-    <t>2.058,00</t>
-  </si>
-  <si>
-    <t>613,30</t>
-  </si>
-  <si>
-    <t>26.671,56</t>
-  </si>
-  <si>
-    <t>2.376,00</t>
-  </si>
-  <si>
-    <t>9.774,06</t>
-  </si>
-  <si>
-    <t>6.376,51</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>233,30</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>6.370,00</t>
-  </si>
-  <si>
-    <t>6.210,00</t>
-  </si>
-  <si>
-    <t>1.163,73</t>
-  </si>
-  <si>
-    <t>398,84</t>
-  </si>
-  <si>
-    <t>95,00</t>
-  </si>
-  <si>
-    <t>212,00</t>
-  </si>
-  <si>
-    <t>134.932,50</t>
-  </si>
-  <si>
-    <t>81.328,09</t>
-  </si>
-  <si>
-    <t>2.373,92</t>
-  </si>
-  <si>
-    <t>22,12</t>
-  </si>
-  <si>
-    <t>2.167,90</t>
-  </si>
-  <si>
-    <t>236,50</t>
-  </si>
-  <si>
-    <t>14.274,80</t>
-  </si>
-  <si>
-    <t>55.512,81</t>
-  </si>
-  <si>
-    <t>143,50</t>
-  </si>
-  <si>
-    <t>140,84</t>
-  </si>
-  <si>
-    <t>28.876,24</t>
-  </si>
-  <si>
-    <t>2.566,32</t>
-  </si>
-  <si>
-    <t>575,00</t>
-  </si>
-  <si>
-    <t>7.958,00</t>
-  </si>
-  <si>
-    <t>14.991,82</t>
-  </si>
-  <si>
-    <t>1.620,00</t>
-  </si>
-  <si>
-    <t>638,00</t>
-  </si>
-  <si>
-    <t>218,40</t>
-  </si>
-  <si>
-    <t>49.036,27</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>6.573,14</t>
-  </si>
-  <si>
-    <t>42,00</t>
-  </si>
-  <si>
-    <t>8.811,10</t>
-  </si>
-  <si>
-    <t>2.018,00</t>
-  </si>
-  <si>
-    <t>138.500,00</t>
-  </si>
-  <si>
-    <t>19.900,00</t>
-  </si>
-  <si>
-    <t>13.158,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>694,20</t>
-  </si>
-  <si>
-    <t>3,81</t>
-  </si>
-  <si>
-    <t>122.754,30</t>
-  </si>
-  <si>
-    <t>14,26</t>
-  </si>
-  <si>
-    <t>19.360,34</t>
-  </si>
-  <si>
-    <t>175.613,40</t>
-  </si>
-  <si>
-    <t>1.015,26</t>
-  </si>
-  <si>
-    <t>417,48</t>
-  </si>
-  <si>
-    <t>6.738,50</t>
-  </si>
-  <si>
-    <t>782,38</t>
-  </si>
-  <si>
-    <t>1.515,00</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>50,62</t>
-  </si>
-  <si>
-    <t>334,00</t>
-  </si>
-  <si>
-    <t>83,76</t>
-  </si>
-  <si>
-    <t>2.114,81</t>
-  </si>
-  <si>
-    <t>8.800,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>670,00</t>
-  </si>
-  <si>
-    <t>14,80</t>
-  </si>
-  <si>
-    <t>35.200,00</t>
-  </si>
-  <si>
-    <t>16.176,00</t>
-  </si>
-  <si>
-    <t>8.590,00</t>
-  </si>
-  <si>
-    <t>16.495,00</t>
-  </si>
-  <si>
-    <t>6.510,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>532,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>12.647,00</t>
-  </si>
-  <si>
-    <t>3.140,00</t>
-  </si>
-  <si>
-    <t>2.071,00</t>
-  </si>
-  <si>
-    <t>536,00</t>
-  </si>
-  <si>
-    <t>88,00</t>
-  </si>
-  <si>
-    <t>3.540,00</t>
-  </si>
-  <si>
-    <t>63,76</t>
-  </si>
-  <si>
-    <t>10.411,03</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>209,96</t>
-  </si>
-  <si>
-    <t>289.935,82</t>
-  </si>
-  <si>
-    <t>18.945,38</t>
-  </si>
-  <si>
-    <t>329,32</t>
-  </si>
-  <si>
-    <t>566,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>11.241,90</t>
-  </si>
-  <si>
-    <t>26.943,85</t>
-  </si>
-  <si>
-    <t>6.462,00</t>
-  </si>
-  <si>
-    <t>604,00</t>
-  </si>
-  <si>
-    <t>50.386,80</t>
-  </si>
-  <si>
-    <t>1.602,25</t>
-  </si>
-  <si>
-    <t>3.143,00</t>
-  </si>
-  <si>
-    <t>2.160,00</t>
-  </si>
-  <si>
-    <t>29.052,32</t>
-  </si>
-  <si>
-    <t>2.957,00</t>
-  </si>
-  <si>
-    <t>2.808,47</t>
-  </si>
-  <si>
-    <t>23,00</t>
-  </si>
-  <si>
-    <t>1.194,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>4.889,17</t>
-  </si>
-  <si>
-    <t>5.268,00</t>
-  </si>
-  <si>
-    <t>880,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>291,20</t>
-  </si>
-  <si>
-    <t>58,94</t>
-  </si>
-  <si>
-    <t>5.412,00</t>
-  </si>
-  <si>
-    <t>9.408,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>910,00</t>
-  </si>
-  <si>
-    <t>17.300,00</t>
-  </si>
-  <si>
-    <t>376,00</t>
-  </si>
-  <si>
-    <t>1.312,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>59,90</t>
-  </si>
-  <si>
-    <t>96,00</t>
-  </si>
-  <si>
-    <t>126,50</t>
-  </si>
-  <si>
-    <t>93.012,00</t>
-  </si>
-  <si>
-    <t>580,54</t>
-  </si>
-  <si>
-    <t>685.999,82</t>
-  </si>
-  <si>
-    <t>7.985,76</t>
-  </si>
-  <si>
-    <t>5.616,00</t>
-  </si>
-  <si>
-    <t>6.700,00</t>
-  </si>
-  <si>
-    <t>6.050,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>565,00</t>
-  </si>
-  <si>
-    <t>833,66</t>
-  </si>
-  <si>
-    <t>198,00</t>
-  </si>
-  <si>
-    <t>5.600,00</t>
-  </si>
-  <si>
-    <t>364,60</t>
-  </si>
-  <si>
-    <t>5.925,00</t>
-  </si>
-  <si>
-    <t>4.820,00</t>
-  </si>
-  <si>
-    <t>294,36</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>275,54</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>1.180,00</t>
-  </si>
-  <si>
-    <t>6.713,56</t>
-  </si>
-  <si>
-    <t>4.277,66</t>
-  </si>
-  <si>
-    <t>3.761,00</t>
-  </si>
-  <si>
-    <t>1.716,00</t>
-  </si>
-  <si>
-    <t>2.157,60</t>
-  </si>
-  <si>
-    <t>3.479,02</t>
-  </si>
-  <si>
-    <t>3.720,00</t>
-  </si>
-  <si>
-    <t>573,00</t>
-  </si>
-  <si>
-    <t>3.100,00</t>
-  </si>
-  <si>
-    <t>15.705,87</t>
-  </si>
-  <si>
-    <t>2.629,00</t>
-  </si>
-  <si>
-    <t>2.950,00</t>
-  </si>
-  <si>
-    <t>3.352,20</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>20.500,00</t>
-  </si>
-  <si>
-    <t>26.038,80</t>
-  </si>
-  <si>
-    <t>229,65</t>
-  </si>
-  <si>
-    <t>43.500,00</t>
-  </si>
-  <si>
-    <t>4.582,51</t>
-  </si>
-  <si>
-    <t>26.400,00</t>
-  </si>
-  <si>
-    <t>2.849,52</t>
-  </si>
-  <si>
-    <t>819.951,34</t>
-  </si>
-  <si>
-    <t>14.500,00</t>
-  </si>
-  <si>
-    <t>4.613,60</t>
-  </si>
-  <si>
-    <t>179.836,00</t>
-  </si>
-  <si>
-    <t>336.780,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>217.500,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>135.166,00</t>
-  </si>
-  <si>
-    <t>244.344,00</t>
-  </si>
-  <si>
-    <t>68.420,00</t>
-  </si>
-  <si>
-    <t>137.948,00</t>
-  </si>
-  <si>
-    <t>268.304,00</t>
-  </si>
-  <si>
-    <t>154.800,00</t>
-  </si>
-  <si>
-    <t>13.110,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>29.800,00</t>
-  </si>
-  <si>
-    <t>240.000,00</t>
+    <t>144000.00</t>
+  </si>
+  <si>
+    <t>54000.00</t>
+  </si>
+  <si>
+    <t>53000.00</t>
+  </si>
+  <si>
+    <t>350500.00</t>
+  </si>
+  <si>
+    <t>1756000.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>193303.13</t>
+  </si>
+  <si>
+    <t>162140.00</t>
+  </si>
+  <si>
+    <t>150000.00</t>
+  </si>
+  <si>
+    <t>32.97</t>
+  </si>
+  <si>
+    <t>2202.20</t>
+  </si>
+  <si>
+    <t>103111.75</t>
+  </si>
+  <si>
+    <t>440354.57</t>
+  </si>
+  <si>
+    <t>12133.00</t>
+  </si>
+  <si>
+    <t>7378.00</t>
+  </si>
+  <si>
+    <t>168425.08</t>
+  </si>
+  <si>
+    <t>17315.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>662.50</t>
+  </si>
+  <si>
+    <t>2058.00</t>
+  </si>
+  <si>
+    <t>613.30</t>
+  </si>
+  <si>
+    <t>26671.56</t>
+  </si>
+  <si>
+    <t>2376.00</t>
+  </si>
+  <si>
+    <t>9774.06</t>
+  </si>
+  <si>
+    <t>6376.51</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>233.30</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>6370.00</t>
+  </si>
+  <si>
+    <t>6210.00</t>
+  </si>
+  <si>
+    <t>1163.73</t>
+  </si>
+  <si>
+    <t>398.84</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>212.00</t>
+  </si>
+  <si>
+    <t>134932.50</t>
+  </si>
+  <si>
+    <t>81328.09</t>
+  </si>
+  <si>
+    <t>2373.92</t>
+  </si>
+  <si>
+    <t>22.12</t>
+  </si>
+  <si>
+    <t>2167.90</t>
+  </si>
+  <si>
+    <t>236.50</t>
+  </si>
+  <si>
+    <t>14274.80</t>
+  </si>
+  <si>
+    <t>55512.81</t>
+  </si>
+  <si>
+    <t>143.50</t>
+  </si>
+  <si>
+    <t>140.84</t>
+  </si>
+  <si>
+    <t>28876.24</t>
+  </si>
+  <si>
+    <t>2566.32</t>
+  </si>
+  <si>
+    <t>575.00</t>
+  </si>
+  <si>
+    <t>7958.00</t>
+  </si>
+  <si>
+    <t>14991.82</t>
+  </si>
+  <si>
+    <t>1620.00</t>
+  </si>
+  <si>
+    <t>638.00</t>
+  </si>
+  <si>
+    <t>218.40</t>
+  </si>
+  <si>
+    <t>49036.27</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>6573.14</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>8811.10</t>
+  </si>
+  <si>
+    <t>2018.00</t>
+  </si>
+  <si>
+    <t>138500.00</t>
+  </si>
+  <si>
+    <t>19900.00</t>
+  </si>
+  <si>
+    <t>13158.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>694.20</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>122754.30</t>
+  </si>
+  <si>
+    <t>14.26</t>
+  </si>
+  <si>
+    <t>19360.34</t>
+  </si>
+  <si>
+    <t>175613.40</t>
+  </si>
+  <si>
+    <t>1015.26</t>
+  </si>
+  <si>
+    <t>417.48</t>
+  </si>
+  <si>
+    <t>6738.50</t>
+  </si>
+  <si>
+    <t>782.38</t>
+  </si>
+  <si>
+    <t>1515.00</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>50.62</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>83.76</t>
+  </si>
+  <si>
+    <t>2114.81</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>670.00</t>
+  </si>
+  <si>
+    <t>14.80</t>
+  </si>
+  <si>
+    <t>35200.00</t>
+  </si>
+  <si>
+    <t>16176.00</t>
+  </si>
+  <si>
+    <t>8590.00</t>
+  </si>
+  <si>
+    <t>16495.00</t>
+  </si>
+  <si>
+    <t>6510.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>532.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>12647.00</t>
+  </si>
+  <si>
+    <t>3140.00</t>
+  </si>
+  <si>
+    <t>2071.00</t>
+  </si>
+  <si>
+    <t>536.00</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>3540.00</t>
+  </si>
+  <si>
+    <t>63.76</t>
+  </si>
+  <si>
+    <t>10411.03</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>209.96</t>
+  </si>
+  <si>
+    <t>289935.82</t>
+  </si>
+  <si>
+    <t>18945.38</t>
+  </si>
+  <si>
+    <t>329.32</t>
+  </si>
+  <si>
+    <t>566.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>11241.90</t>
+  </si>
+  <si>
+    <t>26943.85</t>
+  </si>
+  <si>
+    <t>6462.00</t>
+  </si>
+  <si>
+    <t>604.00</t>
+  </si>
+  <si>
+    <t>50386.80</t>
+  </si>
+  <si>
+    <t>1602.25</t>
+  </si>
+  <si>
+    <t>3143.00</t>
+  </si>
+  <si>
+    <t>2160.00</t>
+  </si>
+  <si>
+    <t>29052.32</t>
+  </si>
+  <si>
+    <t>2957.00</t>
+  </si>
+  <si>
+    <t>2808.47</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>1194.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>4889.17</t>
+  </si>
+  <si>
+    <t>5268.00</t>
+  </si>
+  <si>
+    <t>880.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>291.20</t>
+  </si>
+  <si>
+    <t>58.94</t>
+  </si>
+  <si>
+    <t>5412.00</t>
+  </si>
+  <si>
+    <t>9408.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>910.00</t>
+  </si>
+  <si>
+    <t>17300.00</t>
+  </si>
+  <si>
+    <t>376.00</t>
+  </si>
+  <si>
+    <t>1312.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>59.90</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>126.50</t>
+  </si>
+  <si>
+    <t>93012.00</t>
+  </si>
+  <si>
+    <t>580.54</t>
+  </si>
+  <si>
+    <t>685999.82</t>
+  </si>
+  <si>
+    <t>7985.76</t>
+  </si>
+  <si>
+    <t>5616.00</t>
+  </si>
+  <si>
+    <t>6700.00</t>
+  </si>
+  <si>
+    <t>6050.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>565.00</t>
+  </si>
+  <si>
+    <t>833.66</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>364.60</t>
+  </si>
+  <si>
+    <t>5925.00</t>
+  </si>
+  <si>
+    <t>4820.00</t>
+  </si>
+  <si>
+    <t>294.36</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>275.54</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>1180.00</t>
+  </si>
+  <si>
+    <t>6713.56</t>
+  </si>
+  <si>
+    <t>4277.66</t>
+  </si>
+  <si>
+    <t>3761.00</t>
+  </si>
+  <si>
+    <t>1716.00</t>
+  </si>
+  <si>
+    <t>2157.60</t>
+  </si>
+  <si>
+    <t>3479.02</t>
+  </si>
+  <si>
+    <t>3720.00</t>
+  </si>
+  <si>
+    <t>573.00</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>15705.87</t>
+  </si>
+  <si>
+    <t>2629.00</t>
+  </si>
+  <si>
+    <t>2950.00</t>
+  </si>
+  <si>
+    <t>3352.20</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>20500.00</t>
+  </si>
+  <si>
+    <t>26038.80</t>
+  </si>
+  <si>
+    <t>229.65</t>
+  </si>
+  <si>
+    <t>43500.00</t>
+  </si>
+  <si>
+    <t>4582.51</t>
+  </si>
+  <si>
+    <t>26400.00</t>
+  </si>
+  <si>
+    <t>2849.52</t>
+  </si>
+  <si>
+    <t>819951.34</t>
+  </si>
+  <si>
+    <t>14500.00</t>
+  </si>
+  <si>
+    <t>4613.60</t>
+  </si>
+  <si>
+    <t>179836.00</t>
+  </si>
+  <si>
+    <t>336780.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>217500.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>135166.00</t>
+  </si>
+  <si>
+    <t>244344.00</t>
+  </si>
+  <si>
+    <t>68420.00</t>
+  </si>
+  <si>
+    <t>137948.00</t>
+  </si>
+  <si>
+    <t>268304.00</t>
+  </si>
+  <si>
+    <t>154800.00</t>
+  </si>
+  <si>
+    <t>13110.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>29800.00</t>
+  </si>
+  <si>
+    <t>240000.00</t>
   </si>
 </sst>
 </file>
